--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cx3cl1-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cx3cl1-Itgav.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Cx3cl1</t>
   </si>
   <si>
     <t>Itgav</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>3.744854333333333</v>
+        <v>7.361448666666667</v>
       </c>
       <c r="H2">
-        <v>11.234563</v>
+        <v>22.084346</v>
       </c>
       <c r="I2">
-        <v>0.2406267676902894</v>
+        <v>0.3809728075517136</v>
       </c>
       <c r="J2">
-        <v>0.2406267676902894</v>
+        <v>0.3809728075517136</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N2">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O2">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P2">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q2">
-        <v>57.51662102554289</v>
+        <v>69.37320519408023</v>
       </c>
       <c r="R2">
-        <v>517.649589229886</v>
+        <v>624.3588467467221</v>
       </c>
       <c r="S2">
-        <v>0.02435245918823785</v>
+        <v>0.02535121178875642</v>
       </c>
       <c r="T2">
-        <v>0.02435245918823785</v>
+        <v>0.02535121178875642</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>3.744854333333333</v>
+        <v>7.361448666666667</v>
       </c>
       <c r="H3">
-        <v>11.234563</v>
+        <v>22.084346</v>
       </c>
       <c r="I3">
-        <v>0.2406267676902894</v>
+        <v>0.3809728075517136</v>
       </c>
       <c r="J3">
-        <v>0.2406267676902894</v>
+        <v>0.3809728075517136</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>151.777694</v>
       </c>
       <c r="O3">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P3">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q3">
-        <v>189.4617850264135</v>
+        <v>372.4345677086804</v>
       </c>
       <c r="R3">
-        <v>1705.156065237722</v>
+        <v>3351.911109378124</v>
       </c>
       <c r="S3">
-        <v>0.08021786233821754</v>
+        <v>0.1360996306430192</v>
       </c>
       <c r="T3">
-        <v>0.08021786233821755</v>
+        <v>0.1360996306430192</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>3.744854333333333</v>
+        <v>7.361448666666667</v>
       </c>
       <c r="H4">
-        <v>11.234563</v>
+        <v>22.084346</v>
       </c>
       <c r="I4">
-        <v>0.2406267676902894</v>
+        <v>0.3809728075517136</v>
       </c>
       <c r="J4">
-        <v>0.2406267676902894</v>
+        <v>0.3809728075517136</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N4">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O4">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P4">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q4">
-        <v>95.23994928700843</v>
+        <v>197.5868965448498</v>
       </c>
       <c r="R4">
-        <v>857.1595435830759</v>
+        <v>1778.282068903648</v>
       </c>
       <c r="S4">
-        <v>0.04032446511542657</v>
+        <v>0.07220463934134365</v>
       </c>
       <c r="T4">
-        <v>0.04032446511542658</v>
+        <v>0.07220463934134365</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>3.744854333333333</v>
+        <v>7.361448666666667</v>
       </c>
       <c r="H5">
-        <v>11.234563</v>
+        <v>22.084346</v>
       </c>
       <c r="I5">
-        <v>0.2406267676902894</v>
+        <v>0.3809728075517136</v>
       </c>
       <c r="J5">
-        <v>0.2406267676902894</v>
+        <v>0.3809728075517136</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N5">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O5">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P5">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q5">
-        <v>226.1036567775122</v>
+        <v>403.1316197048313</v>
       </c>
       <c r="R5">
-        <v>2034.93291099761</v>
+        <v>3628.184577343482</v>
       </c>
       <c r="S5">
-        <v>0.09573198104840742</v>
+        <v>0.1473173257785943</v>
       </c>
       <c r="T5">
-        <v>0.09573198104840744</v>
+        <v>0.1473173257785943</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>30.951615</v>
       </c>
       <c r="I6">
-        <v>0.662935182458301</v>
+        <v>0.5339403605073807</v>
       </c>
       <c r="J6">
-        <v>0.662935182458301</v>
+        <v>0.5339403605073807</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N6">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O6">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P6">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q6">
-        <v>158.4603077203367</v>
+        <v>97.22781641272834</v>
       </c>
       <c r="R6">
-        <v>1426.14276948303</v>
+        <v>875.050347714555</v>
       </c>
       <c r="S6">
-        <v>0.06709187897184343</v>
+        <v>0.03553018717733593</v>
       </c>
       <c r="T6">
-        <v>0.06709187897184345</v>
+        <v>0.03553018717733593</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>30.951615</v>
       </c>
       <c r="I7">
-        <v>0.662935182458301</v>
+        <v>0.5339403605073807</v>
       </c>
       <c r="J7">
-        <v>0.662935182458301</v>
+        <v>0.5339403605073807</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>151.777694</v>
       </c>
       <c r="O7">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P7">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q7">
         <v>521.9738611417566</v>
       </c>
       <c r="R7">
-        <v>4697.76475027581</v>
+        <v>4697.764750275809</v>
       </c>
       <c r="S7">
-        <v>0.2210030235457765</v>
+        <v>0.1907461225840662</v>
       </c>
       <c r="T7">
-        <v>0.2210030235457765</v>
+        <v>0.1907461225840662</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>30.951615</v>
       </c>
       <c r="I8">
-        <v>0.662935182458301</v>
+        <v>0.5339403605073807</v>
       </c>
       <c r="J8">
-        <v>0.662935182458301</v>
+        <v>0.5339403605073807</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N8">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O8">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P8">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q8">
-        <v>262.3893998325533</v>
+        <v>276.9216507883467</v>
       </c>
       <c r="R8">
-        <v>2361.50459849298</v>
+        <v>2492.29485709512</v>
       </c>
       <c r="S8">
-        <v>0.1110953153525966</v>
+        <v>0.1011961231773457</v>
       </c>
       <c r="T8">
-        <v>0.1110953153525966</v>
+        <v>0.1011961231773457</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>30.951615</v>
       </c>
       <c r="I9">
-        <v>0.662935182458301</v>
+        <v>0.5339403605073807</v>
       </c>
       <c r="J9">
-        <v>0.662935182458301</v>
+        <v>0.5339403605073807</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N9">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O9">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P9">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q9">
-        <v>622.9235026471167</v>
+        <v>564.9963411834949</v>
       </c>
       <c r="R9">
-        <v>5606.311523824051</v>
+        <v>5084.967070651454</v>
       </c>
       <c r="S9">
-        <v>0.2637449645880844</v>
+        <v>0.2064679275686328</v>
       </c>
       <c r="T9">
-        <v>0.2637449645880844</v>
+        <v>0.2064679275686328</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.500857333333333</v>
+        <v>1.634232333333333</v>
       </c>
       <c r="H10">
-        <v>4.502572</v>
+        <v>4.902697</v>
       </c>
       <c r="I10">
-        <v>0.09643804985140959</v>
+        <v>0.08457548349701474</v>
       </c>
       <c r="J10">
-        <v>0.09643804985140959</v>
+        <v>0.08457548349701474</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N10">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O10">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P10">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q10">
-        <v>23.05142864606489</v>
+        <v>15.40076418769211</v>
       </c>
       <c r="R10">
-        <v>207.462857814584</v>
+        <v>138.606877689229</v>
       </c>
       <c r="S10">
-        <v>0.009759943566305378</v>
+        <v>0.005627937090964828</v>
       </c>
       <c r="T10">
-        <v>0.009759943566305379</v>
+        <v>0.005627937090964828</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.500857333333333</v>
+        <v>1.634232333333333</v>
       </c>
       <c r="H11">
-        <v>4.502572</v>
+        <v>4.902697</v>
       </c>
       <c r="I11">
-        <v>0.09643804985140959</v>
+        <v>0.08457548349701474</v>
       </c>
       <c r="J11">
-        <v>0.09643804985140959</v>
+        <v>0.08457548349701474</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>151.777694</v>
       </c>
       <c r="O11">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P11">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q11">
-        <v>75.93222169210756</v>
+        <v>82.68000500452422</v>
       </c>
       <c r="R11">
-        <v>683.3899952289679</v>
+        <v>744.120045040718</v>
       </c>
       <c r="S11">
-        <v>0.03214959948721751</v>
+        <v>0.03021394660519439</v>
       </c>
       <c r="T11">
-        <v>0.03214959948721751</v>
+        <v>0.03021394660519439</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.500857333333333</v>
+        <v>1.634232333333333</v>
       </c>
       <c r="H12">
-        <v>4.502572</v>
+        <v>4.902697</v>
       </c>
       <c r="I12">
-        <v>0.09643804985140959</v>
+        <v>0.08457548349701474</v>
       </c>
       <c r="J12">
-        <v>0.09643804985140959</v>
+        <v>0.08457548349701474</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N12">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O12">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P12">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q12">
-        <v>38.17012988766044</v>
+        <v>43.86404220119289</v>
       </c>
       <c r="R12">
-        <v>343.5311689889439</v>
+        <v>394.776379810736</v>
       </c>
       <c r="S12">
-        <v>0.01616118112860255</v>
+        <v>0.01602933900260789</v>
       </c>
       <c r="T12">
-        <v>0.01616118112860255</v>
+        <v>0.01602933900260789</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.634232333333333</v>
+      </c>
+      <c r="H13">
+        <v>4.902697</v>
+      </c>
+      <c r="I13">
+        <v>0.08457548349701474</v>
+      </c>
+      <c r="J13">
+        <v>0.08457548349701474</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>54.762539</v>
+      </c>
+      <c r="N13">
+        <v>164.287617</v>
+      </c>
+      <c r="O13">
+        <v>0.3866872460670236</v>
+      </c>
+      <c r="P13">
+        <v>0.3866872460670236</v>
+      </c>
+      <c r="Q13">
+        <v>89.49471188922766</v>
+      </c>
+      <c r="R13">
+        <v>805.4524070030488</v>
+      </c>
+      <c r="S13">
+        <v>0.03270426079824764</v>
+      </c>
+      <c r="T13">
+        <v>0.03270426079824764</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.500857333333333</v>
-      </c>
-      <c r="H13">
-        <v>4.502572</v>
-      </c>
-      <c r="I13">
-        <v>0.09643804985140959</v>
-      </c>
-      <c r="J13">
-        <v>0.09643804985140959</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>60.37715666666667</v>
-      </c>
-      <c r="N13">
-        <v>181.13147</v>
-      </c>
-      <c r="O13">
-        <v>0.397844271305776</v>
-      </c>
-      <c r="P13">
-        <v>0.397844271305776</v>
-      </c>
-      <c r="Q13">
-        <v>90.61749834898222</v>
-      </c>
-      <c r="R13">
-        <v>815.55748514084</v>
-      </c>
-      <c r="S13">
-        <v>0.03836732566928415</v>
-      </c>
-      <c r="T13">
-        <v>0.03836732566928415</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.009880666666666668</v>
+      </c>
+      <c r="H14">
+        <v>0.029642</v>
+      </c>
+      <c r="I14">
+        <v>0.0005113484438908852</v>
+      </c>
+      <c r="J14">
+        <v>0.0005113484438908852</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>9.423852333333334</v>
+      </c>
+      <c r="N14">
+        <v>28.271557</v>
+      </c>
+      <c r="O14">
+        <v>0.06654336290212845</v>
+      </c>
+      <c r="P14">
+        <v>0.06654336290212845</v>
+      </c>
+      <c r="Q14">
+        <v>0.09311394362155558</v>
+      </c>
+      <c r="R14">
+        <v>0.8380254925940001</v>
+      </c>
+      <c r="S14">
+        <v>3.402684507126984E-05</v>
+      </c>
+      <c r="T14">
+        <v>3.402684507126984E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.009880666666666668</v>
+      </c>
+      <c r="H15">
+        <v>0.029642</v>
+      </c>
+      <c r="I15">
+        <v>0.0005113484438908852</v>
+      </c>
+      <c r="J15">
+        <v>0.0005113484438908852</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>50.59256466666667</v>
+      </c>
+      <c r="N15">
+        <v>151.777694</v>
+      </c>
+      <c r="O15">
+        <v>0.3572423751649123</v>
+      </c>
+      <c r="P15">
+        <v>0.3572423751649123</v>
+      </c>
+      <c r="Q15">
+        <v>0.4998882672831112</v>
+      </c>
+      <c r="R15">
+        <v>4.498994405548</v>
+      </c>
+      <c r="S15">
+        <v>0.0001826753326324617</v>
+      </c>
+      <c r="T15">
+        <v>0.0001826753326324617</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.009880666666666668</v>
+      </c>
+      <c r="H16">
+        <v>0.029642</v>
+      </c>
+      <c r="I16">
+        <v>0.0005113484438908852</v>
+      </c>
+      <c r="J16">
+        <v>0.0005113484438908852</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>26.84076266666667</v>
+      </c>
+      <c r="N16">
+        <v>80.522288</v>
+      </c>
+      <c r="O16">
+        <v>0.1895270158659356</v>
+      </c>
+      <c r="P16">
+        <v>0.1895270158659356</v>
+      </c>
+      <c r="Q16">
+        <v>0.2652046289884445</v>
+      </c>
+      <c r="R16">
+        <v>2.386841660896</v>
+      </c>
+      <c r="S16">
+        <v>9.691434463832927E-05</v>
+      </c>
+      <c r="T16">
+        <v>9.691434463832928E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.009880666666666668</v>
+      </c>
+      <c r="H17">
+        <v>0.029642</v>
+      </c>
+      <c r="I17">
+        <v>0.0005113484438908852</v>
+      </c>
+      <c r="J17">
+        <v>0.0005113484438908852</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>54.762539</v>
+      </c>
+      <c r="N17">
+        <v>164.287617</v>
+      </c>
+      <c r="O17">
+        <v>0.3866872460670236</v>
+      </c>
+      <c r="P17">
+        <v>0.3866872460670236</v>
+      </c>
+      <c r="Q17">
+        <v>0.5410903936793333</v>
+      </c>
+      <c r="R17">
+        <v>4.869813543114</v>
+      </c>
+      <c r="S17">
+        <v>0.0001977319215488244</v>
+      </c>
+      <c r="T17">
+        <v>0.0001977319215488244</v>
       </c>
     </row>
   </sheetData>
